--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>S100a9</t>
+  </si>
+  <si>
+    <t>Tlr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>S100a9</t>
-  </si>
-  <si>
-    <t>Tlr4</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08871633333333333</v>
+        <v>2.127580666666667</v>
       </c>
       <c r="H2">
-        <v>0.266149</v>
+        <v>6.382742</v>
       </c>
       <c r="I2">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264654</v>
       </c>
       <c r="J2">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264655</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N2">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q2">
-        <v>0.8087123965021111</v>
+        <v>17.421687906258</v>
       </c>
       <c r="R2">
-        <v>7.278411568518999</v>
+        <v>156.795191156322</v>
       </c>
       <c r="S2">
-        <v>8.321734203105031E-05</v>
+        <v>0.08837669049214847</v>
       </c>
       <c r="T2">
-        <v>8.321734203105029E-05</v>
+        <v>0.08837669049214848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08871633333333333</v>
+        <v>2.127580666666667</v>
       </c>
       <c r="H3">
-        <v>0.266149</v>
+        <v>6.382742</v>
       </c>
       <c r="I3">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264654</v>
       </c>
       <c r="J3">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264655</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q3">
-        <v>0.7988103821013334</v>
+        <v>19.15694057041067</v>
       </c>
       <c r="R3">
-        <v>7.189293438911999</v>
+        <v>172.412465133696</v>
       </c>
       <c r="S3">
-        <v>8.21984145078047E-05</v>
+        <v>0.09717927543401335</v>
       </c>
       <c r="T3">
-        <v>8.21984145078047E-05</v>
+        <v>0.09717927543401336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08871633333333333</v>
+        <v>2.127580666666667</v>
       </c>
       <c r="H4">
-        <v>0.266149</v>
+        <v>6.382742</v>
       </c>
       <c r="I4">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264654</v>
       </c>
       <c r="J4">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264655</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N4">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q4">
-        <v>2.817925758047111</v>
+        <v>42.66403682334067</v>
       </c>
       <c r="R4">
-        <v>25.361331822424</v>
+        <v>383.9763314100661</v>
       </c>
       <c r="S4">
-        <v>0.0002899674750131037</v>
+        <v>0.2164260086491165</v>
       </c>
       <c r="T4">
-        <v>0.0002899674750131037</v>
+        <v>0.2164260086491166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08871633333333333</v>
+        <v>2.127580666666667</v>
       </c>
       <c r="H5">
-        <v>0.266149</v>
+        <v>6.382742</v>
       </c>
       <c r="I5">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264654</v>
       </c>
       <c r="J5">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264655</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N5">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O5">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P5">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q5">
-        <v>0.2113500742123333</v>
+        <v>4.288671438026889</v>
       </c>
       <c r="R5">
-        <v>1.902150667911</v>
+        <v>38.598042942242</v>
       </c>
       <c r="S5">
-        <v>2.174814123053905E-05</v>
+        <v>0.02175556067474228</v>
       </c>
       <c r="T5">
-        <v>2.174814123053905E-05</v>
+        <v>0.02175556067474228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08871633333333333</v>
+        <v>2.127580666666667</v>
       </c>
       <c r="H6">
-        <v>0.266149</v>
+        <v>6.382742</v>
       </c>
       <c r="I6">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264654</v>
       </c>
       <c r="J6">
-        <v>0.0007521739725275528</v>
+        <v>0.6546268440264655</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N6">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q6">
-        <v>2.672884696281222</v>
+        <v>45.51518568974045</v>
       </c>
       <c r="R6">
-        <v>24.055962266531</v>
+        <v>409.6366712076641</v>
       </c>
       <c r="S6">
-        <v>0.0002750425997450551</v>
+        <v>0.2308893087764448</v>
       </c>
       <c r="T6">
-        <v>0.0002750425997450551</v>
+        <v>0.2308893087764448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.455644</v>
+        <v>1.122485666666667</v>
       </c>
       <c r="H7">
-        <v>124.366932</v>
+        <v>3.367457</v>
       </c>
       <c r="I7">
-        <v>0.3514781918906479</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="J7">
-        <v>0.3514781918906478</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N7">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q7">
-        <v>377.8976423857881</v>
+        <v>9.191470514043001</v>
       </c>
       <c r="R7">
-        <v>3401.078781472092</v>
+        <v>82.723234626387</v>
       </c>
       <c r="S7">
-        <v>0.03888605825156727</v>
+        <v>0.04662646634230536</v>
       </c>
       <c r="T7">
-        <v>0.03888605825156725</v>
+        <v>0.04662646634230536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.455644</v>
+        <v>1.122485666666667</v>
       </c>
       <c r="H8">
-        <v>124.366932</v>
+        <v>3.367457</v>
       </c>
       <c r="I8">
-        <v>0.3514781918906479</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="J8">
-        <v>0.3514781918906478</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q8">
-        <v>373.270598317824</v>
+        <v>10.10696870129067</v>
       </c>
       <c r="R8">
-        <v>3359.435384860416</v>
+        <v>90.962718311616</v>
       </c>
       <c r="S8">
-        <v>0.03840993063133794</v>
+        <v>0.05127060302847841</v>
       </c>
       <c r="T8">
-        <v>0.03840993063133794</v>
+        <v>0.05127060302847841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.455644</v>
+        <v>1.122485666666667</v>
       </c>
       <c r="H9">
-        <v>124.366932</v>
+        <v>3.367457</v>
       </c>
       <c r="I9">
-        <v>0.3514781918906479</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="J9">
-        <v>0.3514781918906478</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N9">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q9">
-        <v>1316.769107274848</v>
+        <v>22.50902659844567</v>
       </c>
       <c r="R9">
-        <v>11850.92196547363</v>
+        <v>202.581239386011</v>
       </c>
       <c r="S9">
-        <v>0.1354969030399001</v>
+        <v>0.1141837282170465</v>
       </c>
       <c r="T9">
-        <v>0.1354969030399001</v>
+        <v>0.1141837282170465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.455644</v>
+        <v>1.122485666666667</v>
       </c>
       <c r="H10">
-        <v>124.366932</v>
+        <v>3.367457</v>
       </c>
       <c r="I10">
-        <v>0.3514781918906479</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="J10">
-        <v>0.3514781918906478</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N10">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O10">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P10">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q10">
-        <v>98.76031962457199</v>
+        <v>2.262650856745223</v>
       </c>
       <c r="R10">
-        <v>888.8428766211479</v>
+        <v>20.363857710707</v>
       </c>
       <c r="S10">
-        <v>0.01016253903469427</v>
+        <v>0.01147796904262864</v>
       </c>
       <c r="T10">
-        <v>0.01016253903469427</v>
+        <v>0.01147796904262864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.455644</v>
+        <v>1.122485666666667</v>
       </c>
       <c r="H11">
-        <v>124.366932</v>
+        <v>3.367457</v>
       </c>
       <c r="I11">
-        <v>0.3514781918906479</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="J11">
-        <v>0.3514781918906478</v>
+        <v>0.3453731559735345</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N11">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q11">
-        <v>1248.993869096812</v>
+        <v>24.01325804132711</v>
       </c>
       <c r="R11">
-        <v>11240.94482187131</v>
+        <v>216.119322371944</v>
       </c>
       <c r="S11">
-        <v>0.1285227609331483</v>
+        <v>0.1218143893430755</v>
       </c>
       <c r="T11">
-        <v>0.1285227609331483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>76.40220066666666</v>
-      </c>
-      <c r="H12">
-        <v>229.206602</v>
-      </c>
-      <c r="I12">
-        <v>0.6477696341368246</v>
-      </c>
-      <c r="J12">
-        <v>0.6477696341368245</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>9.115710333333334</v>
-      </c>
-      <c r="N12">
-        <v>27.347131</v>
-      </c>
-      <c r="O12">
-        <v>0.1106357638930427</v>
-      </c>
-      <c r="P12">
-        <v>0.1106357638930427</v>
-      </c>
-      <c r="Q12">
-        <v>696.4603301065403</v>
-      </c>
-      <c r="R12">
-        <v>6268.142970958862</v>
-      </c>
-      <c r="S12">
-        <v>0.07166648829944437</v>
-      </c>
-      <c r="T12">
-        <v>0.07166648829944434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>76.40220066666666</v>
-      </c>
-      <c r="H13">
-        <v>229.206602</v>
-      </c>
-      <c r="I13">
-        <v>0.6477696341368246</v>
-      </c>
-      <c r="J13">
-        <v>0.6477696341368245</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.004096000000001</v>
-      </c>
-      <c r="N13">
-        <v>27.012288</v>
-      </c>
-      <c r="O13">
-        <v>0.1092811204721574</v>
-      </c>
-      <c r="P13">
-        <v>0.1092811204721574</v>
-      </c>
-      <c r="Q13">
-        <v>687.9327494139307</v>
-      </c>
-      <c r="R13">
-        <v>6191.394744725376</v>
-      </c>
-      <c r="S13">
-        <v>0.07078899142631165</v>
-      </c>
-      <c r="T13">
-        <v>0.07078899142631163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>76.40220066666666</v>
-      </c>
-      <c r="H14">
-        <v>229.206602</v>
-      </c>
-      <c r="I14">
-        <v>0.6477696341368246</v>
-      </c>
-      <c r="J14">
-        <v>0.6477696341368245</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>31.76332533333333</v>
-      </c>
-      <c r="N14">
-        <v>95.289976</v>
-      </c>
-      <c r="O14">
-        <v>0.3855058611490069</v>
-      </c>
-      <c r="P14">
-        <v>0.3855058611490069</v>
-      </c>
-      <c r="Q14">
-        <v>2426.78795595795</v>
-      </c>
-      <c r="R14">
-        <v>21841.09160362155</v>
-      </c>
-      <c r="S14">
-        <v>0.2497189906340937</v>
-      </c>
-      <c r="T14">
-        <v>0.2497189906340937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>76.40220066666666</v>
-      </c>
-      <c r="H15">
-        <v>229.206602</v>
-      </c>
-      <c r="I15">
-        <v>0.6477696341368246</v>
-      </c>
-      <c r="J15">
-        <v>0.6477696341368245</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.382313</v>
-      </c>
-      <c r="N15">
-        <v>7.146939</v>
-      </c>
-      <c r="O15">
-        <v>0.0289137114881257</v>
-      </c>
-      <c r="P15">
-        <v>0.02891371148812569</v>
-      </c>
-      <c r="Q15">
-        <v>182.0139558768086</v>
-      </c>
-      <c r="R15">
-        <v>1638.125602891278</v>
-      </c>
-      <c r="S15">
-        <v>0.01872942431220089</v>
-      </c>
-      <c r="T15">
-        <v>0.01872942431220088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>76.40220066666666</v>
-      </c>
-      <c r="H16">
-        <v>229.206602</v>
-      </c>
-      <c r="I16">
-        <v>0.6477696341368246</v>
-      </c>
-      <c r="J16">
-        <v>0.6477696341368245</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.12843966666667</v>
-      </c>
-      <c r="N16">
-        <v>90.38531900000001</v>
-      </c>
-      <c r="O16">
-        <v>0.3656635429976674</v>
-      </c>
-      <c r="P16">
-        <v>0.3656635429976674</v>
-      </c>
-      <c r="Q16">
-        <v>2301.879093186226</v>
-      </c>
-      <c r="R16">
-        <v>20716.91183867604</v>
-      </c>
-      <c r="S16">
-        <v>0.2368657394647741</v>
-      </c>
-      <c r="T16">
-        <v>0.236865739464774</v>
+        <v>0.1218143893430755</v>
       </c>
     </row>
   </sheetData>
